--- a/RESULTS/2018/B2 SET 6 [2.8..5.6] All/Cov Fit .xlsx
+++ b/RESULTS/2018/B2 SET 6 [2.8..5.6] All/Cov Fit .xlsx
@@ -1201,45 +1201,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>115</v>
-      </c>
       <c r="G1" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8908604931488592</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9829935339922622</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9367037552409344</v>
+        <v>0.8433266371635671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9620148681499917</v>
+        <v>0.716132603562775</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9644118375410596</v>
+        <v>0.8182302021279786</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1247,114 +1247,114 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8908604931488592</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999988</v>
       </c>
       <c r="D3" t="n">
+        <v>0.7142561097261672</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9453730035440817</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.8454950961075529</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.9881189194158861</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8610777790150789</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.8939986958459575</v>
+        <v>0.8689870168200714</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9829935339922622</v>
+        <v>0.5760983877272431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8454950961075529</v>
+        <v>0.7142561097261672</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8937866916066581</v>
+        <v>0.8835087277637633</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9332068830452305</v>
+        <v>0.9733923915320546</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9164615784597097</v>
+        <v>0.7876251031811439</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9367037552409344</v>
+        <v>0.8433266371635671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9881189194158861</v>
+        <v>0.9453730035440817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8937866916066581</v>
+        <v>0.8835087277637633</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.920795861806644</v>
+        <v>0.9650958047342153</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9490458365409505</v>
+        <v>0.9160138606284766</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9620148681499917</v>
+        <v>0.716132603562775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8610777790150789</v>
+        <v>0.8454950961075529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9332068830452305</v>
+        <v>0.9733923915320546</v>
       </c>
       <c r="E6" t="n">
-        <v>0.920795861806644</v>
+        <v>0.9650958047342153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999988</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9701007421680856</v>
+        <v>0.8592261452336571</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9644118375410596</v>
+        <v>0.8182302021279786</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8939986958459575</v>
+        <v>0.8689870168200714</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9164615784597097</v>
+        <v>0.7876251031811439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9490458365409505</v>
+        <v>0.9160138606284766</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9701007421680856</v>
+        <v>0.8592261452336571</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999999999991</v>
+        <v>0.999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1378,39 +1378,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8908604931488593</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9829935339922622</v>
+        <v>0.8990793688848987</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9367037552409344</v>
+        <v>0.8433266371635671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9644118375410596</v>
+        <v>0.716132603562775</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1418,79 +1418,79 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8908604931488593</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999989</v>
       </c>
       <c r="D3" t="n">
+        <v>0.9263322078053773</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9453730035440817</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.8454950961075529</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9881189194158861</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8939986958459575</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9829935339922622</v>
+        <v>0.8990793688848987</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8454950961075529</v>
+        <v>0.9263322078053773</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8937866916066581</v>
+        <v>0.9277399072134819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9164615784597097</v>
+        <v>0.8493730054880495</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9367037552409344</v>
+        <v>0.8433266371635671</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9881189194158861</v>
+        <v>0.9453730035440817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8937866916066581</v>
+        <v>0.9277399072134819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9490458365409505</v>
+        <v>0.9650958047342153</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9644118375410596</v>
+        <v>0.716132603562775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8939986958459575</v>
+        <v>0.8454950961075529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9164615784597097</v>
+        <v>0.8493730054880495</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9490458365409505</v>
+        <v>0.9650958047342153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999999999999991</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1514,33 +1514,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8908604931488591</v>
+        <v>0.845495096107553</v>
       </c>
       <c r="D2" t="n">
+        <v>0.7930714527146816</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.9829935339922613</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8663895624189717</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1548,50 +1548,50 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8908604931488591</v>
+        <v>0.845495096107553</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.845495096107553</v>
+        <v>0.8292179521797095</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8292179521797095</v>
+        <v>0.8908604931488591</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9829935339922613</v>
+        <v>0.7930714527146816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.845495096107553</v>
+        <v>0.8292179521797095</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000002</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7930714527146816</v>
+        <v>0.8663895624189717</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
+        <v>0.9829935339922613</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8908604931488591</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.8663895624189717</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.8292179521797095</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7930714527146816</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.9999999999999992</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1615,55 +1615,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>49</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9367037552409344</v>
+        <v>0.845495096107553</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9829935339922621</v>
+        <v>0.9650958047342153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9367037552409344</v>
+        <v>0.845495096107553</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8937866916066581</v>
+        <v>0.9453730035440818</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9829935339922621</v>
+        <v>0.9650958047342153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8937866916066581</v>
+        <v>0.9453730035440818</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -1902,16 +1902,16 @@
         <v>60</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="n">
         <v>36</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O1" s="1" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1949,16 +1949,16 @@
         <v>0.9292158249502446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3262279536526055</v>
+        <v>0.9268671704579725</v>
       </c>
       <c r="M2" t="n">
         <v>0.3929671090329547</v>
       </c>
       <c r="N2" t="n">
-        <v>0.945854643795922</v>
+        <v>0.9621816572019263</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8846059261452994</v>
+        <v>0.9510014505987581</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1996,16 +1996,16 @@
         <v>0.8110782157512449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5840877903220256</v>
+        <v>0.7804291240867764</v>
       </c>
       <c r="M3" t="n">
         <v>0.6731407481616737</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7845878028444073</v>
+        <v>0.80475562379891</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7365494600108503</v>
+        <v>0.7809657792078248</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2043,16 +2043,16 @@
         <v>0.9082647574606065</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2783142639036583</v>
+        <v>0.924976802767657</v>
       </c>
       <c r="M4" t="n">
         <v>0.3419649891110217</v>
       </c>
       <c r="N4" t="n">
-        <v>0.968702111112369</v>
+        <v>0.9843228766662215</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8834028148254729</v>
+        <v>0.9657089268665547</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2090,16 +2090,16 @@
         <v>0.9334198891773107</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4550180324924053</v>
+        <v>0.9148206303300687</v>
       </c>
       <c r="M5" t="n">
         <v>0.5286239736536461</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9129976107098774</v>
+        <v>0.9259542851915182</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8770093055156196</v>
+        <v>0.9174283881930794</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2137,16 +2137,16 @@
         <v>0.8892509063953766</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6223385654449416</v>
+        <v>0.8536391366442702</v>
       </c>
       <c r="M6" t="n">
         <v>0.6953192071207754</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8304374154298012</v>
+        <v>0.8392247789121783</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8230029412998439</v>
+        <v>0.8331137339376288</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2184,16 +2184,16 @@
         <v>0.9580916768305404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3806421505429244</v>
+        <v>0.945150587825353</v>
       </c>
       <c r="M7" t="n">
         <v>0.4445959664112384</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9409825702574194</v>
+        <v>0.9511569627913594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9106266082165205</v>
+        <v>0.9499112648981569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2231,16 +2231,16 @@
         <v>0.6269071873242388</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8833585597302449</v>
+        <v>0.5745722763973302</v>
       </c>
       <c r="M8" t="n">
         <v>0.9415491058899723</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5403747128044615</v>
+        <v>0.5471502664622111</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5538261327154317</v>
+        <v>0.5345766680943225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2278,16 +2278,16 @@
         <v>0.9380930440225502</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2364648855874056</v>
+        <v>0.9656789988530825</v>
       </c>
       <c r="M9" t="n">
         <v>0.2836492162247341</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9948133332875108</v>
+        <v>0.9953997096353964</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9425975891529694</v>
+        <v>0.9937967344181567</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2325,16 +2325,16 @@
         <v>0.9150924754953219</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2018675142628157</v>
+        <v>0.9504728062358204</v>
       </c>
       <c r="M10" t="n">
         <v>0.2436421532582382</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9858030484163484</v>
+        <v>0.9843367653843965</v>
       </c>
       <c r="O10" t="n">
-        <v>0.930500349387433</v>
+        <v>0.9832465263922684</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2372,63 +2372,63 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3941063150882995</v>
+        <v>0.9931855578954236</v>
       </c>
       <c r="M11" t="n">
         <v>0.4374209220540851</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9601043963622176</v>
+        <v>0.9494737711028877</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9869011010233799</v>
+        <v>0.9697087221680777</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="n">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3262279536526055</v>
+        <v>0.9268671704579725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5840877903220256</v>
+        <v>0.7804291240867764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2783142639036583</v>
+        <v>0.924976802767657</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4550180324924053</v>
+        <v>0.9148206303300687</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6223385654449416</v>
+        <v>0.8536391366442702</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3806421505429244</v>
+        <v>0.945150587825353</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8833585597302449</v>
+        <v>0.5745722763973302</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2364648855874056</v>
+        <v>0.9656789988530825</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2018675142628157</v>
+        <v>0.9504728062358204</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3941063150882995</v>
+        <v>0.9931855578954236</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999993</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9840828241419473</v>
+        <v>0.3841827095240701</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2897979863069443</v>
+        <v>0.9703918777570877</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3437010526422852</v>
+        <v>0.9876906926903515</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2466,110 +2466,110 @@
         <v>0.4374209220540851</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9840828241419473</v>
+        <v>0.3841827095240701</v>
       </c>
       <c r="M13" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3400422662412026</v>
+        <v>0.3398696509851473</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3782899318558111</v>
+        <v>0.3332946274778337</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
-        <v>0.945854643795922</v>
+        <v>0.9621816572019263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7845878028444073</v>
+        <v>0.80475562379891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.968702111112369</v>
+        <v>0.9843228766662215</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9129976107098774</v>
+        <v>0.9259542851915182</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8304374154298012</v>
+        <v>0.8392247789121783</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9409825702574194</v>
+        <v>0.9511569627913594</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5403747128044615</v>
+        <v>0.5471502664622111</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9948133332875108</v>
+        <v>0.9953997096353964</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9858030484163484</v>
+        <v>0.9843367653843965</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9601043963622176</v>
+        <v>0.9494737711028877</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2897979863069443</v>
+        <v>0.9703918777570877</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3400422662412026</v>
+        <v>0.3398696509851473</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9630868498009177</v>
+        <v>0.9949580134758238</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8846059261452994</v>
+        <v>0.9510014505987581</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7365494600108503</v>
+        <v>0.7809657792078248</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8834028148254729</v>
+        <v>0.9657089268665547</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8770093055156196</v>
+        <v>0.9174283881930794</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8230029412998439</v>
+        <v>0.8331137339376288</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9106266082165205</v>
+        <v>0.9499112648981569</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5538261327154317</v>
+        <v>0.5345766680943225</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9425975891529694</v>
+        <v>0.9937967344181567</v>
       </c>
       <c r="J15" t="n">
-        <v>0.930500349387433</v>
+        <v>0.9832465263922684</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9869011010233799</v>
+        <v>0.9697087221680777</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3437010526422852</v>
+        <v>0.9876906926903515</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3782899318558111</v>
+        <v>0.3332946274778337</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9630868498009177</v>
+        <v>0.9949580134758238</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2623,13 +2623,13 @@
         <v>60</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="n">
         <v>36</v>
       </c>
       <c r="N1" s="1" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2667,13 +2667,13 @@
         <v>0.9292158249502446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9057684410937519</v>
+        <v>0.8846059261452994</v>
       </c>
       <c r="M2" t="n">
         <v>0.3929671090329547</v>
       </c>
       <c r="N2" t="n">
-        <v>0.945854643795922</v>
+        <v>0.9621816572019263</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2711,13 +2711,13 @@
         <v>0.8110782157512449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7582256236441349</v>
+        <v>0.7365494600108503</v>
       </c>
       <c r="M3" t="n">
         <v>0.6731407481616737</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7845878028444073</v>
+        <v>0.80475562379891</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2755,13 +2755,13 @@
         <v>0.9082647574606065</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9043234739358318</v>
+        <v>0.8834028148254729</v>
       </c>
       <c r="M4" t="n">
         <v>0.3419649891110217</v>
       </c>
       <c r="N4" t="n">
-        <v>0.968702111112369</v>
+        <v>0.9843228766662215</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2799,13 +2799,13 @@
         <v>0.9334198891773107</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8960935524264827</v>
+        <v>0.8770093055156196</v>
       </c>
       <c r="M5" t="n">
         <v>0.5286239736536461</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9129976107098774</v>
+        <v>0.9259542851915182</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2843,13 +2843,13 @@
         <v>0.8892509063953766</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8386356552379817</v>
+        <v>0.8230029412998439</v>
       </c>
       <c r="M6" t="n">
         <v>0.6953192071207754</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8304374154298012</v>
+        <v>0.8392247789121783</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2887,13 +2887,13 @@
         <v>0.9580916768305404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9281957354603311</v>
+        <v>0.9106266082165205</v>
       </c>
       <c r="M7" t="n">
         <v>0.4445959664112384</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9409825702574194</v>
+        <v>0.9511569627913594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2931,13 +2931,13 @@
         <v>0.6269071873242388</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5643705225144177</v>
+        <v>0.5538261327154317</v>
       </c>
       <c r="M8" t="n">
         <v>0.9415491058899723</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5403747128044615</v>
+        <v>0.5471502664622111</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2975,13 +2975,13 @@
         <v>0.9380930440225502</v>
       </c>
       <c r="L9" t="n">
-        <v>0.954983497022903</v>
+        <v>0.9425975891529694</v>
       </c>
       <c r="M9" t="n">
         <v>0.2836492162247341</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9948133332875108</v>
+        <v>0.9953997096353964</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3019,13 +3019,13 @@
         <v>0.915092475495322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9414131664487356</v>
+        <v>0.930500349387433</v>
       </c>
       <c r="M10" t="n">
         <v>0.2436421532582382</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9858030484163484</v>
+        <v>0.9843367653843965</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3063,57 +3063,57 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9912958648555413</v>
+        <v>0.9869011010233799</v>
       </c>
       <c r="M11" t="n">
         <v>0.4374209220540851</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9601043963622176</v>
+        <v>0.9494737711028877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9057684410937519</v>
+        <v>0.8846059261452994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7582256236441349</v>
+        <v>0.7365494600108503</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9043234739358318</v>
+        <v>0.8834028148254729</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8960935524264827</v>
+        <v>0.8770093055156196</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8386356552379817</v>
+        <v>0.8230029412998439</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9281957354603311</v>
+        <v>0.9106266082165205</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5643705225144177</v>
+        <v>0.5538261327154317</v>
       </c>
       <c r="I12" t="n">
-        <v>0.954983497022903</v>
+        <v>0.9425975891529694</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9414131664487356</v>
+        <v>0.930500349387433</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9912958648555413</v>
+        <v>0.9869011010233799</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3815500894664462</v>
+        <v>0.3782899318558111</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9735149101264798</v>
+        <v>0.9441724759459821</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3151,57 +3151,57 @@
         <v>0.4374209220540851</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3815500894664462</v>
+        <v>0.3782899318558111</v>
       </c>
       <c r="M13" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3400422662412026</v>
+        <v>0.3398696509851473</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
-        <v>0.945854643795922</v>
+        <v>0.9621816572019263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7845878028444073</v>
+        <v>0.80475562379891</v>
       </c>
       <c r="D14" t="n">
-        <v>0.968702111112369</v>
+        <v>0.9843228766662215</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9129976107098774</v>
+        <v>0.9259542851915182</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8304374154298012</v>
+        <v>0.8392247789121783</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9409825702574194</v>
+        <v>0.9511569627913594</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5403747128044615</v>
+        <v>0.5471502664622111</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9948133332875108</v>
+        <v>0.9953997096353964</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9858030484163484</v>
+        <v>0.9843367653843965</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9601043963622176</v>
+        <v>0.9494737711028877</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9735149101264798</v>
+        <v>0.9441724759459821</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3400422662412026</v>
+        <v>0.3398696509851473</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3231,7 +3231,7 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>119</v>
@@ -3243,22 +3243,22 @@
         <v>18</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="n">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3272,7 +3272,7 @@
         <v>0.8908604931488592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9829935339922621</v>
+        <v>0.9644593971449598</v>
       </c>
       <c r="E2" t="n">
         <v>0.9790012516398797</v>
@@ -3284,22 +3284,22 @@
         <v>0.9912578239261928</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6212451433533892</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9557192247525628</v>
+        <v>0.9428255592105297</v>
       </c>
       <c r="J2" t="n">
         <v>0.913300224707</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8880306477182862</v>
+        <v>0.9292158249502446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9084816191244777</v>
+        <v>0.8846059261452994</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4883252150102924</v>
+        <v>0.7721631910893918</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3313,7 +3313,7 @@
         <v>0.9999999999999988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.845495096107553</v>
+        <v>0.7790924054983105</v>
       </c>
       <c r="E3" t="n">
         <v>0.9537423061267187</v>
@@ -3325,63 +3325,63 @@
         <v>0.9011392545873461</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8712925590442898</v>
+        <v>0.6048925114238638</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7645568493519578</v>
+        <v>0.7489296527070338</v>
       </c>
       <c r="J3" t="n">
         <v>0.6975959545542459</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6942587989593334</v>
+        <v>0.8110782157512449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7880780460472323</v>
+        <v>0.7365494600108503</v>
       </c>
       <c r="M3" t="n">
-        <v>0.763820843167942</v>
+        <v>0.9646528335593058</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9829935339922621</v>
+        <v>0.9644593971449598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.845495096107553</v>
+        <v>0.7790924054983105</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9426772388485593</v>
+        <v>0.905086402465756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8506234642767461</v>
+        <v>0.7961021484415792</v>
       </c>
       <c r="G4" t="n">
-        <v>0.958806048143263</v>
+        <v>0.9367797132807286</v>
       </c>
       <c r="H4" t="n">
-        <v>0.562562250366951</v>
+        <v>0.2252527899028545</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9853102944596696</v>
+        <v>0.9861915653605556</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9558026525919663</v>
+        <v>0.978102161263985</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9171818558382843</v>
+        <v>0.9014090896759372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8884971568962065</v>
+        <v>0.8884825271111754</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4326048114434313</v>
+        <v>0.6420826042274149</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3395,7 +3395,7 @@
         <v>0.9537423061267187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9426772388485593</v>
+        <v>0.905086402465756</v>
       </c>
       <c r="E5" t="n">
         <v>1.000000000000001</v>
@@ -3407,22 +3407,22 @@
         <v>0.9891504583343231</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7488656111963269</v>
+        <v>0.4608900584073337</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9000174441945918</v>
+        <v>0.8914011467911995</v>
       </c>
       <c r="J5" t="n">
         <v>0.8508527020727797</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8487042729954735</v>
+        <v>0.9334198891773107</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9145204397438245</v>
+        <v>0.8770093055156196</v>
       </c>
       <c r="M5" t="n">
-        <v>0.624628701734912</v>
+        <v>0.8749865415339734</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3436,7 +3436,7 @@
         <v>0.9772186711448345</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8506234642767461</v>
+        <v>0.7961021484415792</v>
       </c>
       <c r="E6" t="n">
         <v>0.9703527992157847</v>
@@ -3448,22 +3448,22 @@
         <v>0.9335062362917215</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8788934370924156</v>
+        <v>0.6301196027992291</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7947648550626082</v>
+        <v>0.7906719034986813</v>
       </c>
       <c r="J6" t="n">
         <v>0.7419993396300475</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7621766472972034</v>
+        <v>0.8892509063953766</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8736563891962353</v>
+        <v>0.8230029412998439</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7806212616865862</v>
+        <v>0.9583854841295372</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3477,7 +3477,7 @@
         <v>0.9011392545873461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.958806048143263</v>
+        <v>0.9367797132807286</v>
       </c>
       <c r="E7" t="n">
         <v>0.9891504583343231</v>
@@ -3489,104 +3489,104 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.666158792940303</v>
+        <v>0.3801335224260193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9349138606267846</v>
+        <v>0.9286815821496515</v>
       </c>
       <c r="J7" t="n">
         <v>0.8949338658983506</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8906399241497344</v>
+        <v>0.9580916768305404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9412643369090735</v>
+        <v>0.9106266082165205</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5389798204549603</v>
+        <v>0.8034061146367363</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6212451433533892</v>
+        <v>0.3295519977362816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8712925590442898</v>
+        <v>0.6048925114238638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.562562250366951</v>
+        <v>0.2252527899028545</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7488656111963269</v>
+        <v>0.4608900584073337</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8788934370924156</v>
+        <v>0.6301196027992291</v>
       </c>
       <c r="G8" t="n">
-        <v>0.666158792940303</v>
+        <v>0.3801335224260193</v>
       </c>
       <c r="H8" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4858769410320263</v>
+        <v>0.2320653440755348</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4322928114781795</v>
+        <v>0.1963343970346767</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4660913027661817</v>
+        <v>0.3807230532937473</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6157107328831538</v>
+        <v>0.3273212750788994</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.7758802120867304</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9557192247525628</v>
+        <v>0.9428255592105297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7645568493519578</v>
+        <v>0.7489296527070338</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9853102944596696</v>
+        <v>0.9861915653605556</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9000174441945918</v>
+        <v>0.8914011467911995</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7947648550626082</v>
+        <v>0.7906719034986813</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9349138606267846</v>
+        <v>0.9286815821496515</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4858769410320263</v>
+        <v>0.2320653440755348</v>
       </c>
       <c r="I9" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9911127199725809</v>
+        <v>0.9961079046775486</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9616630174187413</v>
+        <v>0.9380930440225502</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9093688054816157</v>
+        <v>0.9425975891529694</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3639630180834507</v>
+        <v>0.6257562566791348</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3600,7 +3600,7 @@
         <v>0.6975959545542459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9558026525919663</v>
+        <v>0.978102161263985</v>
       </c>
       <c r="E10" t="n">
         <v>0.8508527020727797</v>
@@ -3612,145 +3612,145 @@
         <v>0.8949338658983506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4322928114781795</v>
+        <v>0.1963343970346767</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9911127199725809</v>
+        <v>0.9961079046775486</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9804227046431991</v>
+        <v>0.9150924754953219</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9072471504660367</v>
+        <v>0.930500349387433</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3192742534746081</v>
+        <v>0.5722317660116055</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8880306477182862</v>
+        <v>0.9292158249502446</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6942587989593334</v>
+        <v>0.8110782157512449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9171818558382843</v>
+        <v>0.9014090896759372</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8487042729954735</v>
+        <v>0.9334198891773107</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7621766472972034</v>
+        <v>0.8892509063953766</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8906399241497344</v>
+        <v>0.9580916768305404</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4660913027661817</v>
+        <v>0.3807230532937473</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9616630174187413</v>
+        <v>0.9380930440225502</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9804227046431991</v>
+        <v>0.9150924754953219</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9536756408529157</v>
+        <v>0.9869011010233799</v>
       </c>
       <c r="M11" t="n">
-        <v>0.35955638143414</v>
+        <v>0.738795624479702</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9084816191244777</v>
+        <v>0.8846059261452994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7880780460472323</v>
+        <v>0.7365494600108503</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8884971568962065</v>
+        <v>0.8884825271111754</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9145204397438245</v>
+        <v>0.8770093055156196</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8736563891962353</v>
+        <v>0.8230029412998439</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9412643369090735</v>
+        <v>0.9106266082165205</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6157107328831538</v>
+        <v>0.3273212750788994</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9093688054816157</v>
+        <v>0.9425975891529694</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9072471504660367</v>
+        <v>0.930500349387433</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9536756408529157</v>
+        <v>0.9869011010233799</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5127066092789497</v>
+        <v>0.6619140815489795</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4883252150102924</v>
+        <v>0.7721631910893918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.763820843167942</v>
+        <v>0.9646528335593058</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4326048114434313</v>
+        <v>0.6420826042274149</v>
       </c>
       <c r="E13" t="n">
-        <v>0.624628701734912</v>
+        <v>0.8749865415339734</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7806212616865862</v>
+        <v>0.9583854841295372</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5389798204549603</v>
+        <v>0.8034061146367363</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9802605839149038</v>
+        <v>0.7758802120867304</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3639630180834507</v>
+        <v>0.6257562566791348</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3192742534746081</v>
+        <v>0.5722317660116055</v>
       </c>
       <c r="K13" t="n">
-        <v>0.35955638143414</v>
+        <v>0.738795624479702</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5127066092789497</v>
+        <v>0.6619140815489795</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
     </row>
   </sheetData>
@@ -3780,13 +3780,13 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>119</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>18</v>
@@ -3795,16 +3795,16 @@
         <v>33</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3818,13 +3818,13 @@
         <v>0.8908604931488592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3295519977362816</v>
+        <v>0.9644593971449598</v>
       </c>
       <c r="E2" t="n">
         <v>0.9790012516398797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9033552154812575</v>
+        <v>0.7672846008113162</v>
       </c>
       <c r="G2" t="n">
         <v>0.9912578239261928</v>
@@ -3833,16 +3833,16 @@
         <v>0.7721631910893918</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9557192247525628</v>
+        <v>0.9510014505987581</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8984362813051766</v>
+        <v>0.913300224707</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8880306477182862</v>
+        <v>0.9292158249502446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9084816191244777</v>
+        <v>0.8846059261452994</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3856,13 +3856,13 @@
         <v>0.9999999999999988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6048925114238637</v>
+        <v>0.7790924054983105</v>
       </c>
       <c r="E3" t="n">
         <v>0.9537423061267187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9772186711448345</v>
+        <v>0.9361786792518512</v>
       </c>
       <c r="G3" t="n">
         <v>0.9011392545873461</v>
@@ -3871,54 +3871,54 @@
         <v>0.9646528335593058</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7645568493519578</v>
+        <v>0.7809657792078248</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6838665427032969</v>
+        <v>0.6975959545542459</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6942587989593334</v>
+        <v>0.8110782157512449</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7880780460472323</v>
+        <v>0.7365494600108503</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3295519977362816</v>
+        <v>0.9644593971449598</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6048925114238637</v>
+        <v>0.7790924054983105</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4608900584073337</v>
+        <v>0.905086402465756</v>
       </c>
       <c r="F4" t="n">
-        <v>0.630119602799229</v>
+        <v>0.640214277959405</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3801335224260192</v>
+        <v>0.9367797132807286</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.6420826042274149</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2286128875127236</v>
+        <v>0.9715979206152952</v>
       </c>
       <c r="J4" t="n">
-        <v>0.200093059220486</v>
+        <v>0.978102161263985</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2375777051298619</v>
+        <v>0.9014090896759372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3794217051764304</v>
+        <v>0.8884825271111754</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3932,13 +3932,13 @@
         <v>0.9537423061267187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4608900584073337</v>
+        <v>0.905086402465756</v>
       </c>
       <c r="E5" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9703527992157847</v>
+        <v>0.8738181219451276</v>
       </c>
       <c r="G5" t="n">
         <v>0.9891504583343231</v>
@@ -3947,54 +3947,54 @@
         <v>0.8749865415339734</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9000174441945918</v>
+        <v>0.9174283881930794</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8409721425072969</v>
+        <v>0.8508527020727797</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8487042729954735</v>
+        <v>0.9334198891773107</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9145204397438245</v>
+        <v>0.8770093055156196</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9033552154812575</v>
+        <v>0.7672846008113162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9772186711448345</v>
+        <v>0.9361786792518512</v>
       </c>
       <c r="D6" t="n">
-        <v>0.630119602799229</v>
+        <v>0.640214277959405</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9703527992157847</v>
+        <v>0.8738181219451276</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9335062362917215</v>
+        <v>0.8134137842612774</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9583854841295373</v>
+        <v>0.9864684986485669</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7947648550626083</v>
+        <v>0.6949327954953883</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7372365210707129</v>
+        <v>0.5901796741174382</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7621766472972034</v>
+        <v>0.7839503298939421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8736563891962353</v>
+        <v>0.7133776595841835</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4008,13 +4008,13 @@
         <v>0.9011392545873461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3801335224260192</v>
+        <v>0.9367797132807286</v>
       </c>
       <c r="E7" t="n">
         <v>0.9891504583343231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9335062362917215</v>
+        <v>0.8134137842612774</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -4023,16 +4023,16 @@
         <v>0.8034061146367363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9349138606267846</v>
+        <v>0.9499112648981569</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8862644658988938</v>
+        <v>0.8949338658983506</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8906399241497344</v>
+        <v>0.9580916768305404</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9412643369090735</v>
+        <v>0.9106266082165205</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4046,13 +4046,13 @@
         <v>0.9646528335593058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7758802120867304</v>
+        <v>0.6420826042274149</v>
       </c>
       <c r="E8" t="n">
         <v>0.8749865415339734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9583854841295373</v>
+        <v>0.9864684986485669</v>
       </c>
       <c r="G8" t="n">
         <v>0.8034061146367363</v>
@@ -4061,168 +4061,168 @@
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6343384066545052</v>
+        <v>0.6711239932194597</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5651793414145035</v>
+        <v>0.5722317660116055</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5913320213470848</v>
+        <v>0.7387956244797022</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7215513019052406</v>
+        <v>0.6619140815489796</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9557192247525628</v>
+        <v>0.9510014505987581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7645568493519578</v>
+        <v>0.7809657792078248</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2286128875127236</v>
+        <v>0.9715979206152952</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9000174441945918</v>
+        <v>0.9174283881930794</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7947648550626083</v>
+        <v>0.6949327954953883</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9349138606267846</v>
+        <v>0.9499112648981569</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6343384066545052</v>
+        <v>0.6711239932194597</v>
       </c>
       <c r="I9" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9820250607813992</v>
+        <v>0.9832465263922684</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9616630174187413</v>
+        <v>0.9697087221680777</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9093688054816157</v>
+        <v>0.9695407478435537</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8984362813051766</v>
+        <v>0.913300224707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6838665427032969</v>
+        <v>0.6975959545542459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.200093059220486</v>
+        <v>0.978102161263985</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8409721425072969</v>
+        <v>0.8508527020727797</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7372365210707129</v>
+        <v>0.5901796741174382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8862644658988938</v>
+        <v>0.8949338658983506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5651793414145035</v>
+        <v>0.5722317660116055</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9820250607813992</v>
+        <v>0.9832465263922684</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.990920736573885</v>
+        <v>0.9150924754953219</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9201881427039732</v>
+        <v>0.930500349387433</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8880306477182862</v>
+        <v>0.9292158249502446</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6942587989593334</v>
+        <v>0.8110782157512449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2375777051298619</v>
+        <v>0.9014090896759372</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8487042729954735</v>
+        <v>0.9334198891773107</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7621766472972034</v>
+        <v>0.7839503298939421</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8906399241497344</v>
+        <v>0.9580916768305404</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5913320213470848</v>
+        <v>0.7387956244797022</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9616630174187413</v>
+        <v>0.9697087221680777</v>
       </c>
       <c r="J11" t="n">
-        <v>0.990920736573885</v>
+        <v>0.9150924754953219</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9536756408529157</v>
+        <v>0.9869011010233799</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9084816191244777</v>
+        <v>0.8846059261452994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7880780460472323</v>
+        <v>0.7365494600108503</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3794217051764304</v>
+        <v>0.8884825271111754</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9145204397438245</v>
+        <v>0.8770093055156196</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8736563891962353</v>
+        <v>0.7133776595841835</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9412643369090735</v>
+        <v>0.9106266082165205</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7215513019052406</v>
+        <v>0.6619140815489796</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9093688054816157</v>
+        <v>0.9695407478435537</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9201881427039732</v>
+        <v>0.930500349387433</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9536756408529157</v>
+        <v>0.9869011010233799</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4252,13 +4252,13 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>119</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>18</v>
@@ -4267,13 +4267,13 @@
         <v>33</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4287,13 +4287,13 @@
         <v>0.8908604931488592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8752350222421199</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="E2" t="n">
         <v>0.9790012516398797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8580414716533818</v>
+        <v>0.7672846008113162</v>
       </c>
       <c r="G2" t="n">
         <v>0.9912578239261928</v>
@@ -4302,13 +4302,13 @@
         <v>0.7721631910893918</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9557192247525628</v>
+        <v>0.9265668216264957</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8984362813051766</v>
+        <v>0.913300224707</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8880306477182862</v>
+        <v>0.9473188082872633</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4322,13 +4322,13 @@
         <v>0.9999999999999988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.779799703319365</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="E3" t="n">
         <v>0.9537423061267187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9527048782396907</v>
+        <v>0.9361786792518512</v>
       </c>
       <c r="G3" t="n">
         <v>0.9011392545873461</v>
@@ -4337,48 +4337,48 @@
         <v>0.9646528335593058</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7645568493519578</v>
+        <v>0.7317263061664312</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6838665427032969</v>
+        <v>0.6975959545542459</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6942587989593334</v>
+        <v>0.802889290744116</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8752350222421199</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.779799703319365</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8978456565998948</v>
+        <v>0.8563692345566367</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8822847391957457</v>
+        <v>0.5868337187482365</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9218605412021648</v>
+        <v>0.8990103372293137</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7338574581419918</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8552697408516499</v>
+        <v>0.9874968091856984</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8660565449162155</v>
+        <v>0.9970070672198119</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9101485936154265</v>
+        <v>0.9452806436642047</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4392,13 +4392,13 @@
         <v>0.9537423061267187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8978456565998948</v>
+        <v>0.8563692345566367</v>
       </c>
       <c r="E5" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9404354345441354</v>
+        <v>0.8738181219451276</v>
       </c>
       <c r="G5" t="n">
         <v>0.9891504583343231</v>
@@ -4407,48 +4407,48 @@
         <v>0.8749865415339734</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9000174441945918</v>
+        <v>0.8794535461944056</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8409721425072969</v>
+        <v>0.8508527020727797</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8487042729954735</v>
+        <v>0.9326572083335707</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8580414716533818</v>
+        <v>0.7672846008113162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9527048782396907</v>
+        <v>0.9361786792518512</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8822847391957457</v>
+        <v>0.5868337187482365</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9404354345441354</v>
+        <v>0.8738181219451276</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9016775020365152</v>
+        <v>0.8134137842612774</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.9864684986485666</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7446367272967606</v>
+        <v>0.6390029691925881</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.5901796741174382</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7309585743497991</v>
+        <v>0.7441784572242968</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4462,13 +4462,13 @@
         <v>0.9011392545873461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9218605412021648</v>
+        <v>0.8990103372293137</v>
       </c>
       <c r="E7" t="n">
         <v>0.9891504583343231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9016775020365152</v>
+        <v>0.8134137842612774</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -4477,13 +4477,13 @@
         <v>0.8034061146367363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9349138606267846</v>
+        <v>0.9186132697745286</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8862644658988938</v>
+        <v>0.8949338658983506</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8906399241497344</v>
+        <v>0.9608824675381946</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4497,13 +4497,13 @@
         <v>0.9646528335593058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7338574581419918</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="E8" t="n">
         <v>0.8749865415339734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9614526077731826</v>
+        <v>0.9864684986485666</v>
       </c>
       <c r="G8" t="n">
         <v>0.8034061146367363</v>
@@ -4512,118 +4512,118 @@
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6343384066545052</v>
+        <v>0.6155794301168758</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.5722317660116055</v>
       </c>
       <c r="K8" t="n">
-        <v>0.591332021347085</v>
+        <v>0.7103592670357154</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9557192247525628</v>
+        <v>0.9265668216264957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7645568493519578</v>
+        <v>0.7317263061664312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8552697408516499</v>
+        <v>0.9874968091856984</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9000174441945918</v>
+        <v>0.8794535461944056</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7446367272967606</v>
+        <v>0.6390029691925881</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9349138606267846</v>
+        <v>0.9186132697745286</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6343384066545052</v>
+        <v>0.6155794301168758</v>
       </c>
       <c r="I9" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9820250607813992</v>
+        <v>0.9950086542005383</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9616630174187413</v>
+        <v>0.9794344886562188</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8984362813051766</v>
+        <v>0.913300224707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6838665427032969</v>
+        <v>0.6975959545542459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8660565449162155</v>
+        <v>0.9970070672198119</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8409721425072969</v>
+        <v>0.8508527020727797</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6957359349893749</v>
+        <v>0.5901796741174382</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8862644658988938</v>
+        <v>0.8949338658983506</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5651793414145034</v>
+        <v>0.5722317660116055</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9820250607813992</v>
+        <v>0.9950086542005383</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.990920736573885</v>
+        <v>0.9567144539217841</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8880306477182862</v>
+        <v>0.9473188082872633</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6942587989593334</v>
+        <v>0.802889290744116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9101485936154265</v>
+        <v>0.9452806436642047</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8487042729954735</v>
+        <v>0.9326572083335707</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7309585743497991</v>
+        <v>0.7441784572242968</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8906399241497344</v>
+        <v>0.9608824675381946</v>
       </c>
       <c r="H11" t="n">
-        <v>0.591332021347085</v>
+        <v>0.7103592670357154</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9616630174187413</v>
+        <v>0.9794344886562188</v>
       </c>
       <c r="J11" t="n">
-        <v>0.990920736573885</v>
+        <v>0.9567144539217841</v>
       </c>
       <c r="K11" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4653,13 +4653,13 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="n">
         <v>119</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>18</v>
@@ -4668,7 +4668,7 @@
         <v>33</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="n">
         <v>4</v>
@@ -4685,13 +4685,13 @@
         <v>0.8908604931488593</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9621816572019263</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="E2" t="n">
         <v>0.9790012516398797</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9033552154812575</v>
+        <v>0.713065080221896</v>
       </c>
       <c r="G2" t="n">
         <v>0.9912578239261928</v>
@@ -4700,7 +4700,7 @@
         <v>0.7721631910893918</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9557192247525628</v>
+        <v>0.9265668216264957</v>
       </c>
       <c r="J2" t="n">
         <v>0.913300224707</v>
@@ -4717,13 +4717,13 @@
         <v>0.9999999999999989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.80475562379891</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="E3" t="n">
         <v>0.9537423061267187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9772186711448345</v>
+        <v>0.8960446450582864</v>
       </c>
       <c r="G3" t="n">
         <v>0.9011392545873461</v>
@@ -4732,7 +4732,7 @@
         <v>0.9646528335593058</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7645568493519578</v>
+        <v>0.7317263061664312</v>
       </c>
       <c r="J3" t="n">
         <v>0.6975959545542459</v>
@@ -4740,34 +4740,34 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9621816572019263</v>
+        <v>0.924102024806333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.80475562379891</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.925954285191518</v>
+        <v>0.8563692345566367</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8392247789121783</v>
+        <v>0.5343516218348133</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9511569627913594</v>
+        <v>0.8990103372293136</v>
       </c>
       <c r="H4" t="n">
-        <v>0.688891069929966</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9941375401553164</v>
+        <v>0.9874968091856984</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9843367653843965</v>
+        <v>0.9970070672198119</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4781,13 +4781,13 @@
         <v>0.9537423061267187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.925954285191518</v>
+        <v>0.8563692345566367</v>
       </c>
       <c r="E5" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9703527992157847</v>
+        <v>0.8288891826384845</v>
       </c>
       <c r="G5" t="n">
         <v>0.9891504583343231</v>
@@ -4796,7 +4796,7 @@
         <v>0.8749865415339734</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9000174441945918</v>
+        <v>0.8794535461944056</v>
       </c>
       <c r="J5" t="n">
         <v>0.8508527020727797</v>
@@ -4804,34 +4804,34 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9033552154812575</v>
+        <v>0.713065080221896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9772186711448345</v>
+        <v>0.8960446450582864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8392247789121783</v>
+        <v>0.5343516218348133</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9703527992157847</v>
+        <v>0.8288891826384845</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9335062362917217</v>
+        <v>0.7677768474159009</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.9695957972255136</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7947648550626083</v>
+        <v>0.592150978644472</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7419993396300475</v>
+        <v>0.5407332265536741</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4845,13 +4845,13 @@
         <v>0.9011392545873461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9511569627913594</v>
+        <v>0.8990103372293136</v>
       </c>
       <c r="E7" t="n">
         <v>0.9891504583343231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9335062362917217</v>
+        <v>0.7677768474159009</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>0.8034061146367363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9349138606267846</v>
+        <v>0.9186132697745286</v>
       </c>
       <c r="J7" t="n">
         <v>0.8949338658983506</v>
@@ -4877,13 +4877,13 @@
         <v>0.9646528335593058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.688891069929966</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="E8" t="n">
         <v>0.8749865415339734</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9583854841295372</v>
+        <v>0.9695957972255136</v>
       </c>
       <c r="G8" t="n">
         <v>0.8034061146367363</v>
@@ -4892,7 +4892,7 @@
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6343384066545052</v>
+        <v>0.6155794301168758</v>
       </c>
       <c r="J8" t="n">
         <v>0.5722317660116055</v>
@@ -4900,34 +4900,34 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9557192247525628</v>
+        <v>0.9265668216264957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7645568493519578</v>
+        <v>0.7317263061664312</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9941375401553164</v>
+        <v>0.9874968091856984</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9000174441945918</v>
+        <v>0.8794535461944056</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7947648550626083</v>
+        <v>0.592150978644472</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9349138606267846</v>
+        <v>0.9186132697745286</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6343384066545052</v>
+        <v>0.6155794301168758</v>
       </c>
       <c r="I9" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9911127199725811</v>
+        <v>0.9950086542005383</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4941,13 +4941,13 @@
         <v>0.6975959545542459</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9843367653843965</v>
+        <v>0.9970070672198119</v>
       </c>
       <c r="E10" t="n">
         <v>0.8508527020727797</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7419993396300475</v>
+        <v>0.5407332265536741</v>
       </c>
       <c r="G10" t="n">
         <v>0.8949338658983506</v>
@@ -4956,7 +4956,7 @@
         <v>0.5722317660116055</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9911127199725811</v>
+        <v>0.9950086542005383</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -4983,57 +4983,57 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G1" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>33</v>
       </c>
       <c r="I1" s="1" t="n">
-        <v>106</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8908604931488592</v>
+        <v>0.7645568493519578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9829935339922621</v>
+        <v>0.995217972430549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9790012516398797</v>
+        <v>0.9176669996630098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9033552154812575</v>
+        <v>0.438820417376629</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9912578239261928</v>
+        <v>0.8961449109780505</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7721631910893918</v>
+        <v>0.6343384066545052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.991764545590856</v>
+        <v>0.9853102944596696</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5041,144 +5041,144 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8908604931488592</v>
+        <v>0.7645568493519578</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.845495096107553</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9537423061267187</v>
+        <v>0.9453730035440818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9772186711448345</v>
+        <v>0.7992545741001124</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9011392545873461</v>
+        <v>0.8939986958459575</v>
       </c>
       <c r="H3" t="n">
         <v>0.9646528335593058</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8722451587731613</v>
+        <v>0.8454950961075529</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9829935339922621</v>
+        <v>0.995217972430549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.845495096107553</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9426772388485593</v>
+        <v>0.8768986640042404</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8506234642767461</v>
+        <v>0.3892452532159665</v>
       </c>
       <c r="G4" t="n">
-        <v>0.958806048143263</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="H4" t="n">
-        <v>0.716132603562775</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="I4" t="n">
-        <v>0.980109900253982</v>
+        <v>0.9674811191136615</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9790012516398797</v>
+        <v>0.9176669996630098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9537423061267187</v>
+        <v>0.9453730035440818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9426772388485593</v>
+        <v>0.8768986640042404</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9703527992157847</v>
+        <v>0.6312009450787797</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9891504583343231</v>
+        <v>0.9580158418516369</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8749865415339734</v>
+        <v>0.8433266371635671</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9696426104792012</v>
+        <v>0.9650958047342153</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9033552154812575</v>
+        <v>0.438820417376629</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9772186711448345</v>
+        <v>0.7992545741001124</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8506234642767461</v>
+        <v>0.3892452532159665</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9703527992157847</v>
+        <v>0.6312009450787797</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9335062362917215</v>
+        <v>0.6693691948389043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9583854841295373</v>
+        <v>0.9222647467850524</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8905597353700697</v>
+        <v>0.4988082073174807</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9912578239261928</v>
+        <v>0.8961449109780505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9011392545873461</v>
+        <v>0.8939986958459575</v>
       </c>
       <c r="D7" t="n">
-        <v>0.958806048143263</v>
+        <v>0.8567726708952026</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9891504583343231</v>
+        <v>0.9580158418516369</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9335062362917215</v>
+        <v>0.6693691948389043</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8034061146367363</v>
+        <v>0.8196535774279831</v>
       </c>
       <c r="I7" t="n">
-        <v>0.984011285573606</v>
+        <v>0.9164615784597097</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5186,57 +5186,57 @@
         <v>33</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7721631910893918</v>
+        <v>0.6343384066545052</v>
       </c>
       <c r="C8" t="n">
         <v>0.9646528335593058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.716132603562775</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8749865415339734</v>
+        <v>0.8433266371635671</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9583854841295373</v>
+        <v>0.9222647467850524</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8034061146367363</v>
+        <v>0.8196535774279831</v>
       </c>
       <c r="H8" t="n">
         <v>0.999999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7514101285999506</v>
+        <v>0.7161326035627751</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B9" t="n">
-        <v>0.991764545590856</v>
+        <v>0.9853102944596696</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8722451587731613</v>
+        <v>0.8454950961075529</v>
       </c>
       <c r="D9" t="n">
-        <v>0.980109900253982</v>
+        <v>0.9674811191136615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9696426104792012</v>
+        <v>0.9650958047342153</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8905597353700697</v>
+        <v>0.4988082073174807</v>
       </c>
       <c r="G9" t="n">
-        <v>0.984011285573606</v>
+        <v>0.9164615784597097</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7514101285999506</v>
+        <v>0.7161326035627751</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999999999999988</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5260,22 +5260,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>120</v>
-      </c>
       <c r="G1" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="n">
         <v>33</v>
@@ -5283,28 +5283,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8908604931488592</v>
+        <v>0.7645568493519578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9829935339922621</v>
+        <v>0.995217972430549</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9790012516398797</v>
+        <v>0.9176669996630098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9033552154812575</v>
+        <v>0.9853102944596696</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9912578239261928</v>
+        <v>0.8426390846316569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7721631910893918</v>
+        <v>0.6343384066545052</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5312,22 +5312,22 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8908604931488592</v>
+        <v>0.7645568493519578</v>
       </c>
       <c r="C3" t="n">
         <v>0.9999999999999988</v>
       </c>
       <c r="D3" t="n">
-        <v>0.845495096107553</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9537423061267187</v>
+        <v>0.9453730035440817</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9772186711448345</v>
+        <v>0.8454950961075529</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9011392545873461</v>
+        <v>0.8689870168200714</v>
       </c>
       <c r="H3" t="n">
         <v>0.9646528335593058</v>
@@ -5335,106 +5335,106 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9829935339922621</v>
+        <v>0.995217972430549</v>
       </c>
       <c r="C4" t="n">
-        <v>0.845495096107553</v>
+        <v>0.7081352091913564</v>
       </c>
       <c r="D4" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9426772388485591</v>
+        <v>0.8768986640042403</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8506234642767461</v>
+        <v>0.9674811191136615</v>
       </c>
       <c r="G4" t="n">
-        <v>0.958806048143263</v>
+        <v>0.8010231130736929</v>
       </c>
       <c r="H4" t="n">
-        <v>0.716132603562775</v>
+        <v>0.5761736050262033</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9790012516398797</v>
+        <v>0.9176669996630098</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9537423061267187</v>
+        <v>0.9453730035440817</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9426772388485591</v>
+        <v>0.8768986640042403</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9703527992157847</v>
+        <v>0.9650958047342153</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9891504583343231</v>
+        <v>0.9160138606284766</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8749865415339734</v>
+        <v>0.8433266371635671</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="n">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9033552154812575</v>
+        <v>0.9853102944596696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9772186711448345</v>
+        <v>0.8454950961075529</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8506234642767461</v>
+        <v>0.9674811191136615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9703527992157847</v>
+        <v>0.9650958047342153</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9335062362917215</v>
+        <v>0.8592261452336571</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9583854841295373</v>
+        <v>0.7161326035627751</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9912578239261928</v>
+        <v>0.8426390846316569</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9011392545873461</v>
+        <v>0.8689870168200714</v>
       </c>
       <c r="D7" t="n">
-        <v>0.958806048143263</v>
+        <v>0.8010231130736929</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9891504583343231</v>
+        <v>0.9160138606284766</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9335062362917215</v>
+        <v>0.8592261452336571</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.999999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8034061146367363</v>
+        <v>0.8182302021279786</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5442,22 +5442,22 @@
         <v>33</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7721631910893918</v>
+        <v>0.6343384066545052</v>
       </c>
       <c r="C8" t="n">
         <v>0.9646528335593058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.716132603562775</v>
+        <v>0.5761736050262033</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8749865415339734</v>
+        <v>0.8433266371635671</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9583854841295373</v>
+        <v>0.7161326035627751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8034061146367363</v>
+        <v>0.8182302021279786</v>
       </c>
       <c r="H8" t="n">
         <v>0.999999999999999</v>
